--- a/GameDesign/Class/Done/4_Guardian/Documentation/GuardianSkills.xlsx
+++ b/GameDesign/Class/Done/4_Guardian/Documentation/GuardianSkills.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\Guardian\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\Done\4_Guardian\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1-ArmorStrengthening" sheetId="1" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GameDesign/Class/Done/4_Guardian/Documentation/GuardianSkills.xlsx
+++ b/GameDesign/Class/Done/4_Guardian/Documentation/GuardianSkills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1-ArmorStrengthening" sheetId="1" r:id="rId1"/>
@@ -787,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -944,7 +944,7 @@
   <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,7 +2499,7 @@
   <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
